--- a/Errors.xlsx
+++ b/Errors.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,45 +436,7937 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Cod</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Customer</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Tipo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Marca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Puertas</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Combustible</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Transmision</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Marchas</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Traccion</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Pais</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Tasacion</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Permiso</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Error</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>44661</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SU0130122</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>Suv</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1 validation error for BatchProcessSchema
-Sales
-  Input should be a valid integer, unable to parse string as an integer [type=int_parsing, input_value='asd', input_type=str]
-    For further information visit https://errors.pydantic.dev/2.4/v/int_parsing</t>
+          <t>AUDI</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>E-TRON</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>E-TRON SPORTBACK 55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>BELGICA</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>68661154.0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SU0130131</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>AUDI</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>RS E-TRON GT</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>RS E-TRON GT</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>114440519.0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SD0320618</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sedán</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>E SPORT</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bencina</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>35423685.0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SD0320618</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sedán</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>E SPORT</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bencina</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>40009184.0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SD0320642</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Sedán</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>LUXURY LCI</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hibrido</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>56711401.0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SD0320576</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sedán</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>30E</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>IPERFORMANCE 8E11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>35764269.0</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SD0320632</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Sedán</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>530E</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>LUXURY LCI</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>4x2 y 4x4</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>51677230.0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SD0320632</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sedán</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>530E</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>LUXURY LCI</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>4x2 y 4x4</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>58359140.0</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MT0320273</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Motos</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>12993248.0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HB0320165</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>I3</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>120 ATELIER</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>37105908.0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HB0320165</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>I3</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>120 ATELIER</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>41857493.0</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HB0320121</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>I3</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ATELIER</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>37105908.0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HB0320173</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>I3 120AH</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ATELIER</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>35684221.0</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HB0320179</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>I3S</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>120 AH ATELIER</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>4x2 y 4x4</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>40906549.0</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HB0320179</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>I3S</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>120 AH ATELIER</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>4x2 y 4x4</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>46144824.0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HB0320183</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>I3S</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>120 ATELIER</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>36182474.0</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HB0320174</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>I3S</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>120AH</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>39010196.0</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HB0320186</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>I3S</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>120AH ATELIER</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>40107486.0</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SD0320595</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Sedán</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>I8</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ROADSTER ACCARO</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Bencina</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>114093912.0</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SU0320382</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>XDRIVE40 SUIT</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>91156187.0</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SU0320383</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>IX3</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>M SPORT IMPRESSIVE</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>66293256.0</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SU0320306</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>X3</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>XDRIVE30E EXECUTIVE</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Bencina</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>49165631.0</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SU0320360</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>X3</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>XDRIVE30E EXECUTIVE LCI</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Hibrido</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>EEUU</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>62899269.0</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SU0320361</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>X3</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>XDRIVE30E M SPORT LCI</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Hibrido</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>EEUU</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>62899269.0</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SU0320350</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>XDRIVE 45E URBAN</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>4x2 y 4x4</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>56821663.0</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SU0320386</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>XDRIVE45 EXECUTIVE</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Hibrido</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>EEUU</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>64714657.0</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CT0320016</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Camioneta</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>XDRIVE45E M SPORT</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>4x2 y 4x4</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>60426263.0</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CT0320016</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Camioneta</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>XDRIVE45E M SPORT</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>4x2 y 4x4</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>71188141.0</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SU0320375</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>XDRIVE45E M SPORT STD</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Hibrido</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>EEUU</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>74580900.0</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SU0320376</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>XDRIVE45E URBAN</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Hibrido</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>EEUU</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>59584211.0</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CT0320017</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Camioneta</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>XDRIVE45E XLINE</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>4x2 y 4x4</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>58954367.0</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SU5450013</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>DFSK</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>SERES</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>SERES E3</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>CVT</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>14743760.0</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SU2690014</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>DS AUTOMOBILES</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>DS3 CROSSBACK</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>E-TENSE LOUVRE</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>FRANCIA</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>32748032.0</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SU2690013</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>DS AUTOMOBILES</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>DS3 CROSSBACK</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>E-TENSE SO CHIC</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>FRANCIA</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>31958733.0</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SU2690012</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>DS AUTOMOBILES</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>DS7</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>CROSSBACK E-TENSE 300 4X4 EAT8 SO CHIC</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>4x2 y 4x4</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>FRANCIA</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>38877992.0</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SU2690012</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>DS AUTOMOBILES</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>DS7</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>CROSSBACK E-TENSE 300 4X4 EAT8 SO CHIC</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>4x2 y 4x4</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>FRANCIA</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>43792962.0</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MT5530001</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Motos</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>E - TAKASAKI</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ECO</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2000W</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>597672.0</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MT5530001</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Motos</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>E - TAKASAKI</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ECO</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2000W</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>691385.0</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MT5530002</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Motos</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>E - TAKASAKI</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ELT05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3000W</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>664826.0</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MT5530002</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Motos</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>E - TAKASAKI</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ELT05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3000W</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>769068.0</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SD0760029</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Sedán</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>FERRARI</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>SF90</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>STRADALE</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Bencina</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>ITALIA</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>357093602.0</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SD0760029</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Sedán</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>FERRARI</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>SF90</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>STRADALE</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Bencina</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>ITALIA</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>403318390.0</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>HB1110204</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>HYUNDAI</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>IONIQ</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>EV FL GLS</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>COREA DEL SUR</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>27179852.0</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>HB1110204</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>HYUNDAI</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>IONIQ</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>EV FL GLS</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>COREA DEL SUR</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>30660359.0</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SU1110276</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>HYUNDAI</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>KONA OS EV</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>PREMIUM</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Automatizada</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>COREA DEL SUR</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>36773459.0</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>SU1110277</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>HYUNDAI</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>KONA OS EV</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>VALUE</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Automatizada</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>COREA DEL SUR</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>28880465.0</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SU1180026</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>JAGUAR</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>I-PACE</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>EV400 HSE</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>90374781.0</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CT1250020</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Camioneta</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>JMC</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>VIGUS</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>EV</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>33211554.0</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SU1590001</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>MAXUS</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>EUNIQ 6</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>EUNIQ 6 E</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Automatizada</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>29323435.0</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SU1620197</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>MERCEDES BENZ</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>GLC 300 E</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Hibrido</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>48681934.0</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SU1620183</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>MERCEDES BENZ</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>GLC</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>300 E 4MATIC</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Hibrido</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>51424840.0</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SU1640027</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ZS</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>EV</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>CANADÁ</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>22522940.0</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SU1640027</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ZS</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>EV</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>CANADÁ</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>25370298.0</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SU1650084</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>MINI</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>COOPER</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>COUNTRYMAN SE ALL4 ICONIC</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Hibrido</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>33537331.0</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>HB1650157</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>MINI</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>COOPER</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>SE ICONIC</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>4x2 y 4x4</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>30115614.0</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>HB1650157</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>MINI</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>COOPER</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>SE ICONIC</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>4x2 y 4x4</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>33972060.0</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>HB1650166</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>MINI</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>COOPER</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>SE ICONIC COLLECTION</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>INGLATERRA</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>32241731.0</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SU1660037</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>MITSUBISHI</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>OUTLANDER</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>PHEV</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Bencina</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>4x2 y 4x4</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>JAPÓN</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>28700999.0</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SU1660037</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>MITSUBISHI</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>OUTLANDER</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>PHEV</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Bencina</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>4x2 y 4x4</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>JAPÓN</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>32349511.0</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>HB1760068</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Automatizada</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>INGLATERRA</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>27140172.0</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>CO1840195</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>PEUGEOT</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>PARTNER</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Automatizada</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>FRANCIA</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>20314169.0</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SU1920078</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>PORSCHE</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>CAYENNE</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>E-HYBRID COUPE E3</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Bencina</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>77141620.0</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SU1920078</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>PORSCHE</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>CAYENNE</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>E-HYBRID COUPE E3</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Bencina</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>86947973.0</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SU1920061</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>PORSCHE</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>CAYENNE</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>E-HYBRID E3</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Bencina</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>75544106.0</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SU1920061</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>PORSCHE</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>CAYENNE</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>E-HYBRID E3</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Bencina</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>85147380.0</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SD1920217</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Sedán</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>PORSCHE</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>TAYCAN</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4 CROSS TURISMO</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>95912746.0</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SD1920205</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Sedán</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>PORSCHE</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>TAYCAN</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4S</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>91934016.0</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SD1920205</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Sedán</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>PORSCHE</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>TAYCAN</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4S</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>103821163.0</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SD1920218</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Sedán</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>PORSCHE</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>TAYCAN</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4S CROSS TURISMO</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>115685010.0</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>SD1920219</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Sedán</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>PORSCHE</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>TAYCAN</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>GTS</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>123550432.0</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SD1920211</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Sedán</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>PORSCHE</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>TAYCAN</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>TAYCAN</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>87179026.0</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SD1920211</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Sedán</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>PORSCHE</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>TAYCAN</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>TAYCAN</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>98451349.0</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>SD1920206</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Sedán</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>PORSCHE</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>TAYCAN</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>108367592.0</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SD1920206</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Sedán</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>PORSCHE</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>TAYCAN</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>122379615.0</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SD1920207</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Sedán</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>PORSCHE</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>TAYCAN</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>TURBO S</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>138350854.0</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SD1920207</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Sedán</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>PORSCHE</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>TAYCAN</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>TURBO S</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>ALEMANIA</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>156239738.0</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SD1970153</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Sedán</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>RENAULT</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>FLUENCE</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>ZE ELECTRICO</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>FRANCIA</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>10883415.0</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>CO1970041</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>RENAULT</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>KANGOO</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>L1 ZE 33 FURGON 4P T/A</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>FRANCIA</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>23821383.0</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>CO1970041</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>RENAULT</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>KANGOO</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>L1 ZE 33 FURGON 4P T/A</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>FRANCIA</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>28106544.0</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>CO1970043</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>RENAULT</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>KANGOO</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>L2 ZE 33 FURGON 4P T/A</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>FRANCIA</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>24743232.0</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>CO1970043</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>RENAULT</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>KANGOO</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>L2 ZE 33 FURGON 4P T/A</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>FRANCIA</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>29194222.0</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>MT2130001</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Motos</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>ESCOOTER MÓ 125</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>ESCOOTER MÓ 125 PROPULSIÓN ELÉCTRICA</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>ESPAÑA</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>4793984.0</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MT5640001</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Motos</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>SPEED UP</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>ZP108</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>CALLE</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>469407.0</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>MT5640001</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Motos</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>SPEED UP</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>ZP108</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>CALLE</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>543008.0</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>MT5640002</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Motos</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>SPEED UP</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>ZP18</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>CALLE</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>402253.0</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>MT5640002</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Motos</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>SPEED UP</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>ZP18</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>CALLE</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>465325.0</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SU2440232</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>VOLVO</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>C40</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>P8 RECHARGE</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>BELGICA</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>53664466.0</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SD2440164</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Sedán</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>VOLVO</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>S60 II</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>T8 R-DESIGN</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Bencina</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>4x2 y 4x4</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>EEUU</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>40701529.0</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>SD2440164</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Sedán</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>VOLVO</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>S60 II</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>T8 R-DESIGN</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Bencina</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>4x2 y 4x4</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>EEUU</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>45970230.0</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SU2440227</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>VOLVO</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>XC40</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>P8 RECHARGE</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>BELGICA</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>48928670.0</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>SU2440225</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>VOLVO</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>XC40</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>T5 HIBRIDO R-DESIGN</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Bencina</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>SUECIA</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>38049548.0</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>SU2440225</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>VOLVO</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>XC40</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>T5 HIBRIDO R-DESIGN</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Bencina</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>4x2 (2WD)</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>SUECIA</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>42886461.0</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>SU2440178</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>VOLVO</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>XC60</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>T8 INSCRIPTION</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Bencina</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>SUECIA</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>45502624.0</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>SU2440178</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>VOLVO</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>XC60</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>T8 INSCRIPTION</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Bencina</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>SUECIA</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>51286982.0</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>SU2440221</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>VOLVO</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>XC90</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>T8 INSCRIPTION</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>SUECIA</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>56212539.0</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>SU2440221</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>VOLVO</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>XC90</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>T8 INSCRIPTION</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Automatica</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>4x4 (AWD)</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>SUECIA</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>63318949.0</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>MT2650020</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Motos</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>ZONGSHEN</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>CINECO</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>ES3</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>617404.0</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>MT2650021</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Motos</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>ZONGSHEN</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>CINECO</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>805275.0</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>MT2650025</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Motos</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>ZONGSHEN</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>ZS</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1500D</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Eléctrico</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Automática</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>834397.0</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>SU1840219</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Suv</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>PEUGEOT</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2008 P2</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>GT EV</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Electrico</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Automatizada</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Automatizada</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>FRANCIA</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>25960530.691534</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>1 validation error for BatchProcessSchema
+Permiso
+  Input should be greater than 0 [type=greater_than, input_value='0.0', input_type=str]
+    For further information visit https://errors.pydantic.dev/2.4/v/greater_than</t>
         </is>
       </c>
     </row>
